--- a/guideline_modify_rtl.xlsx
+++ b/guideline_modify_rtl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Trường ĐH CNTT - University of Information Technology\Nam5(1)\HK1_Nam5\KLTN\CNNs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNNs\CNN_DeepLabV3Plus\CNN_DeepLabV3Plus.srcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8F01E-C333-47D5-9DF4-76820787E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894D83F6-EFDD-4E68-AD47-F651FBF28763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D36F866A-6414-4C68-A52C-386A1CEA6CF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D36F866A-6414-4C68-A52C-386A1CEA6CF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Weight_Path" sheetId="1" r:id="rId1"/>
@@ -502,14 +502,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>529142</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>145452</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>91663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>518159</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>93064</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>39275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -532,8 +532,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="529142" y="10139375"/>
-          <a:ext cx="12790617" cy="5217134"/>
+          <a:off x="529142" y="9146016"/>
+          <a:ext cx="12790617" cy="5147141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -546,14 +546,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>60417</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>97970</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>33725</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>156209</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>102421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -576,8 +576,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60417" y="5431970"/>
-          <a:ext cx="4240508" cy="4439739"/>
+          <a:off x="60417" y="4257593"/>
+          <a:ext cx="4240508" cy="4182004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -590,14 +590,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>130077</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -620,8 +620,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572001" y="5353050"/>
-          <a:ext cx="4610099" cy="4683027"/>
+          <a:off x="4572001" y="4178673"/>
+          <a:ext cx="4610099" cy="4414086"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -634,14 +634,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>582757</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>124873</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>71084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -664,8 +664,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9220201" y="5181600"/>
-          <a:ext cx="4773756" cy="4849273"/>
+          <a:off x="9220201" y="4018429"/>
+          <a:ext cx="4773756" cy="4569126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -678,14 +678,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>154765</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>63063</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9274</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -700,8 +700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="906780" y="6776282"/>
-          <a:ext cx="731520" cy="827953"/>
+          <a:off x="906780" y="5748741"/>
+          <a:ext cx="731520" cy="804768"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -751,14 +751,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>60697</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>170530</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>182617</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -773,8 +773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5547097" y="6792047"/>
-          <a:ext cx="731520" cy="827953"/>
+          <a:off x="5547097" y="5764506"/>
+          <a:ext cx="731520" cy="804768"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -824,14 +824,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>491621</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>102213</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>48424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>3941</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>10511</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136016</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -846,8 +846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10245221" y="6723730"/>
-          <a:ext cx="731520" cy="827953"/>
+          <a:off x="10245221" y="5696189"/>
+          <a:ext cx="731520" cy="804768"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -897,14 +897,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>422030</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>170657</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>116868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>369276</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>92749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -919,8 +919,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10175630" y="10346288"/>
-          <a:ext cx="556846" cy="702712"/>
+          <a:off x="10175630" y="9350515"/>
+          <a:ext cx="556846" cy="693058"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -970,14 +970,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>422030</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>141349</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>87560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>369276</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -992,8 +992,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10175630" y="11043811"/>
-          <a:ext cx="556846" cy="702712"/>
+          <a:off x="10175630" y="10038384"/>
+          <a:ext cx="556846" cy="693058"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1043,14 +1043,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>422030</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>82735</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>369276</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1065,8 +1065,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10175630" y="11712027"/>
-          <a:ext cx="556846" cy="702712"/>
+          <a:off x="10175630" y="10696946"/>
+          <a:ext cx="556846" cy="693058"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1116,14 +1116,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>416168</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>35842</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>363414</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>137228</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1138,8 +1138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10169768" y="12391965"/>
-          <a:ext cx="556846" cy="702712"/>
+          <a:off x="10169768" y="11367230"/>
+          <a:ext cx="556846" cy="693057"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1189,14 +1189,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>562706</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>129626</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>75837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>509952</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>105508</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>51719</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1211,8 +1211,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10925906" y="11032088"/>
-          <a:ext cx="556846" cy="702712"/>
+          <a:off x="10925906" y="10026661"/>
+          <a:ext cx="556846" cy="693058"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1262,14 +1262,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>568567</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>82735</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>515813</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1284,8 +1284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10931767" y="11712027"/>
-          <a:ext cx="556846" cy="702712"/>
+          <a:off x="10931767" y="10696946"/>
+          <a:ext cx="556846" cy="693058"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1335,14 +1335,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>556844</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>35843</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>504090</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>11724</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>137229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1357,8 +1357,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10920044" y="12391966"/>
-          <a:ext cx="556846" cy="702712"/>
+          <a:off x="10920044" y="11367231"/>
+          <a:ext cx="556846" cy="693057"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1408,14 +1408,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>550983</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>674</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>126179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>498229</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>158263</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104474</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1430,8 +1430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10914183" y="13083628"/>
-          <a:ext cx="556846" cy="702712"/>
+          <a:off x="10914183" y="12049238"/>
+          <a:ext cx="556846" cy="695471"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1481,14 +1481,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>128953</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>164797</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>111008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>140678</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>86889</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1503,8 +1503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8053753" y="12702628"/>
-          <a:ext cx="556846" cy="702712"/>
+          <a:off x="8053753" y="11675479"/>
+          <a:ext cx="556846" cy="693057"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1554,14 +1554,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>310661</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>147212</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>93423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>257907</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>123093</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>69304</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1576,8 +1576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8845061" y="12685043"/>
-          <a:ext cx="556846" cy="702712"/>
+          <a:off x="8845061" y="11657894"/>
+          <a:ext cx="556846" cy="693057"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1845,7 +1845,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3764280" y="182880"/>
+          <a:off x="3764280" y="220980"/>
           <a:ext cx="2149026" cy="1417443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2340,7 +2340,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11833860" y="7642860"/>
+          <a:off x="16710660" y="7642860"/>
           <a:ext cx="1181100" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2479,7 +2479,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11803380" y="5661660"/>
+          <a:off x="16680180" y="5661660"/>
           <a:ext cx="1242060" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2520,6 +2520,606 @@
             <a:t>Đóng comment các line này</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1300" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21B17B8-2D92-1F96-BEBA-26A89FB19540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3794760" y="822960"/>
+          <a:ext cx="2103120" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DB0BA7-CD3F-41BD-B710-526413A8215F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="2575560"/>
+          <a:ext cx="3116580" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D85F2B8-9B80-4534-B0B7-84E02D121E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3802380" y="4076700"/>
+          <a:ext cx="3116580" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C6E6D3-A483-48BF-85BA-404253828639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7559040" y="2628900"/>
+          <a:ext cx="3116580" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5503A2B-B29F-48BE-A647-E07B6892D3C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7551420" y="4122420"/>
+          <a:ext cx="3116580" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5697A8EB-8612-4914-9D9F-AA82737E844D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7528560" y="739140"/>
+          <a:ext cx="2103120" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B55853A-E4A5-4D82-AB49-44EF30E15903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12123420" y="929640"/>
+          <a:ext cx="762000" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA29912-3E3C-4BF6-A3E0-4C516B990452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13022580" y="944880"/>
+          <a:ext cx="2758440" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
+            <a:t>Đóng comment  line có khung đỏ này</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50F3028-AF40-4CA8-97A6-670C1CBB0B85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3764280" y="5669280"/>
+          <a:ext cx="3695700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2827,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF6FE9-C6F2-4639-81AD-E26CB3FCA342}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2930,8 +3530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9132E121-1CAD-4572-8B2F-BE956A465209}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView topLeftCell="F16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -2941,9 +3541,12 @@
     <col min="7" max="7" width="1.5546875" style="2" customWidth="1"/>
     <col min="8" max="13" width="8.88671875" style="1"/>
     <col min="14" max="14" width="1.5546875" style="2" customWidth="1"/>
-    <col min="15" max="21" width="8.88671875" style="1"/>
+    <col min="15" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="8.88671875" style="1" customWidth="1"/>
     <col min="22" max="22" width="1.5546875" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="23" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="8.88671875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
